--- a/SerialnterfaceAPI.xlsx
+++ b/SerialnterfaceAPI.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SerialnterfaceAPI.xlsx
+++ b/SerialnterfaceAPI.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgoold\Documents\GitHub\Brew-Machine-MkIV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8148"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="254">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -35,49 +30,757 @@
     <t>Sets the strike temperature setpoint in the parameters struct</t>
   </si>
   <si>
-    <t>strikeTemp 25\n</t>
-  </si>
-  <si>
     <t>C Function</t>
   </si>
   <si>
-    <t>setStrikeTemp(value)</t>
-  </si>
-  <si>
     <t>Usage Example ("node" command)</t>
   </si>
   <si>
     <t>Sets the sparge water temp setpoint in the parameters struct</t>
   </si>
   <si>
-    <t>spargeTemp 85\n</t>
-  </si>
-  <si>
-    <t>setSpargeTemp(value)</t>
-  </si>
-  <si>
     <t>Set Strike Temp</t>
   </si>
   <si>
     <t>Set Sparge Temp</t>
   </si>
   <si>
-    <t>Increase Strike Temp</t>
-  </si>
-  <si>
-    <t>Decrease Strike Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increases the current strike temp setpoint </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreases the current strike temp setpoint </t>
-  </si>
-  <si>
-    <t>increaseStrikeTemp</t>
-  </si>
-  <si>
-    <t>decreaseStrikeTemp</t>
+    <t>Set Grind Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the time that the Grain Mill runs for </t>
+  </si>
+  <si>
+    <t>GrindTime 10\n</t>
+  </si>
+  <si>
+    <t>grindTime(int)</t>
+  </si>
+  <si>
+    <t>setStrikeTemp(float value)</t>
+  </si>
+  <si>
+    <t>setSpargeTemp(float value)</t>
+  </si>
+  <si>
+    <t>Set Pump Priming Cycles</t>
+  </si>
+  <si>
+    <t>pumpPrimingCycles 5\n</t>
+  </si>
+  <si>
+    <t>setPumpPrimingCycles(int value)</t>
+  </si>
+  <si>
+    <t>Valid inputs for parameter</t>
+  </si>
+  <si>
+    <t>30.0 - 100.0</t>
+  </si>
+  <si>
+    <t>1 - 20</t>
+  </si>
+  <si>
+    <t>Set Maximum HLT Capacity</t>
+  </si>
+  <si>
+    <t>Sets the maximum amount of litres that can be taken from the HLT</t>
+  </si>
+  <si>
+    <t>maxHLTLitres 22\n</t>
+  </si>
+  <si>
+    <t>setMaxHLTLitres(float value)</t>
+  </si>
+  <si>
+    <t>10.0 - 100.0</t>
+  </si>
+  <si>
+    <t>Set Clean Temp</t>
+  </si>
+  <si>
+    <t>Sets the Clean temperature setpoint in the parameters struct</t>
+  </si>
+  <si>
+    <t>cleanTemp 25\n</t>
+  </si>
+  <si>
+    <t>setCleanTemp(float value)</t>
+  </si>
+  <si>
+    <t>Set Strike Litres</t>
+  </si>
+  <si>
+    <t>Set the amount of litres to be delivered at strike</t>
+  </si>
+  <si>
+    <t>strikeLitres 14.93\n</t>
+  </si>
+  <si>
+    <t>setStrikeLitres(float value)</t>
+  </si>
+  <si>
+    <t>0.0 - 50.0</t>
+  </si>
+  <si>
+    <t>Set Mash-out Litres</t>
+  </si>
+  <si>
+    <t>Set the amount of litres to be delivered at Mash-Out</t>
+  </si>
+  <si>
+    <t>mashOutLitres 22.10\n</t>
+  </si>
+  <si>
+    <t>setMashOutLitres(float value)</t>
+  </si>
+  <si>
+    <t>Set Sparge Litres</t>
+  </si>
+  <si>
+    <t>Set the amount of litres to be delivered at Sparge</t>
+  </si>
+  <si>
+    <t>spargeLitres 8.44\n</t>
+  </si>
+  <si>
+    <t>setSpargeLitres(float value)</t>
+  </si>
+  <si>
+    <t>0.0 - 30.0</t>
+  </si>
+  <si>
+    <t>Set Mash-out Temp</t>
+  </si>
+  <si>
+    <t>Sets the mash-out water temp setpoint</t>
+  </si>
+  <si>
+    <t>strikeTemp 25.3\n</t>
+  </si>
+  <si>
+    <t>spargeTemp 85.9\n</t>
+  </si>
+  <si>
+    <t>mashOutTemp 75.6\n</t>
+  </si>
+  <si>
+    <t>setMashOutTemp(float value)</t>
+  </si>
+  <si>
+    <t>Set Mash Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the time for mashing </t>
+  </si>
+  <si>
+    <t>mashTime 60\n</t>
+  </si>
+  <si>
+    <t>setMashTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>1 - 90</t>
+  </si>
+  <si>
+    <t>Set Pump Time 1 for mash</t>
+  </si>
+  <si>
+    <t>Sets the amount of time the pump runs for at the start of the mash</t>
+  </si>
+  <si>
+    <t>set Pump Time 2 for mash</t>
+  </si>
+  <si>
+    <t>Sets the amount of time before the end of the mash that the pump starts</t>
+  </si>
+  <si>
+    <t>Set Stir Time 1 for mash</t>
+  </si>
+  <si>
+    <t>Sets the amount of time the stirrer runs for at the start of the mash</t>
+  </si>
+  <si>
+    <t>Set Stir Time 2 for mash</t>
+  </si>
+  <si>
+    <t>Sets the amount of time before the end of the mash that the stirrer starts</t>
+  </si>
+  <si>
+    <t>setMashPumpTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>mashPumpTime2 5\n</t>
+  </si>
+  <si>
+    <t>mashPumpTime1 12\n</t>
+  </si>
+  <si>
+    <t>mashStirTime1 15 \n</t>
+  </si>
+  <si>
+    <t>mashStirTime2 20\n</t>
+  </si>
+  <si>
+    <t>setMashPumpTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>setMashStirTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>setMashStirTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>Set Pump Time 1 for mash-out</t>
+  </si>
+  <si>
+    <t>set Pump Time 2 for mash-out</t>
+  </si>
+  <si>
+    <t>Set Stir Time 1 for mash-out</t>
+  </si>
+  <si>
+    <t>Set Stir Time 2 for mash-out</t>
+  </si>
+  <si>
+    <t>Sets the amount of time the pump runs for at the start of mash-out</t>
+  </si>
+  <si>
+    <t>Sets the amount of time before the end of mash-out that the pump starts</t>
+  </si>
+  <si>
+    <t>Sets the amount of time the stirrer runs for at the start of mash-out</t>
+  </si>
+  <si>
+    <t>Sets the amount of time before the end of mash-out that the stirrer starts</t>
+  </si>
+  <si>
+    <t>Set Mash-out Time</t>
+  </si>
+  <si>
+    <t>Set the time for mashing out</t>
+  </si>
+  <si>
+    <t>mashOutTime 60\n</t>
+  </si>
+  <si>
+    <t>setMashOutTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>Set Sparge Time</t>
+  </si>
+  <si>
+    <t>Set Pump Time 1 for Sparge</t>
+  </si>
+  <si>
+    <t>Sets the amount of time the pump runs for at the start of Sparge</t>
+  </si>
+  <si>
+    <t>set Pump Time 2 for Sparge</t>
+  </si>
+  <si>
+    <t>Sets the amount of time before the end of Sparge that the pump starts</t>
+  </si>
+  <si>
+    <t>Set Stir Time 1 for Sparge</t>
+  </si>
+  <si>
+    <t>Sets the amount of time the stirrer runs for at the start of Sparge</t>
+  </si>
+  <si>
+    <t>Set Stir Time 2 for Sparge</t>
+  </si>
+  <si>
+    <t>Sets the amount of time before the end of Sparge that the stirrer starts</t>
+  </si>
+  <si>
+    <t>SpargeTime 60\n</t>
+  </si>
+  <si>
+    <t>setSpargeTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>mashOutPumpTime1 12\n</t>
+  </si>
+  <si>
+    <t>setmashOutPumpTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>mashOutPumpTime2 5\n</t>
+  </si>
+  <si>
+    <t>setmashOutPumpTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>mashOutStirTime1 15 \n</t>
+  </si>
+  <si>
+    <t>setmashOutStirTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>mashOutStirTime2 20\n</t>
+  </si>
+  <si>
+    <t>setmashOutStirTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>Set the time for Sparging</t>
+  </si>
+  <si>
+    <t>setSpargePumpTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>SpargePumpTime2 5\n</t>
+  </si>
+  <si>
+    <t>setSpargePumpTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>SpargeStirTime1 15 \n</t>
+  </si>
+  <si>
+    <t>setSpargeStirTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>SpargeStirTime2 20\n</t>
+  </si>
+  <si>
+    <t>setSpargeStirTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>SpargePumpTime1 12\n</t>
+  </si>
+  <si>
+    <t>Set Boil Time</t>
+  </si>
+  <si>
+    <t>Sets the amount of time to boil for</t>
+  </si>
+  <si>
+    <t>boilTime 90\n</t>
+  </si>
+  <si>
+    <t>setBoilTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>1 - 5</t>
+  </si>
+  <si>
+    <t>Set Pump Priming Time</t>
+  </si>
+  <si>
+    <t>Sets the time for pumping during pump priming</t>
+  </si>
+  <si>
+    <t>pumpPrimingTime 5\n</t>
+  </si>
+  <si>
+    <t>setPumpPrimingTime(int TimeInSeconds)</t>
+  </si>
+  <si>
+    <t>1 - 120</t>
+  </si>
+  <si>
+    <t>Set Bring To Boil Time</t>
+  </si>
+  <si>
+    <t>Sets the estimated time to bring to boil</t>
+  </si>
+  <si>
+    <t>bringToBoilTime 18\n</t>
+  </si>
+  <si>
+    <t>setBringToBoilTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>1 - 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Hop 1 time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the time remaining time in the boil to deliver hops 1 </t>
+  </si>
+  <si>
+    <t>hopsTime1 90\n</t>
+  </si>
+  <si>
+    <t>setHopTime1(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>120 - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Hop 2 time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Hop 3 time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Hop 4 time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Hop 5 time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Hop 6 time </t>
+  </si>
+  <si>
+    <t>Set the time remaining time in the boil to deliver hops 2</t>
+  </si>
+  <si>
+    <t>Set the time remaining time in the boil to deliver hops 3</t>
+  </si>
+  <si>
+    <t>Set the time remaining time in the boil to deliver hops 4</t>
+  </si>
+  <si>
+    <t>Set the time remaining time in the boil to deliver hops 5</t>
+  </si>
+  <si>
+    <t>Set the time remaining time in the boil to deliver hops 6</t>
+  </si>
+  <si>
+    <t>hopsTime2 90\n</t>
+  </si>
+  <si>
+    <t>hopsTime3 90\n</t>
+  </si>
+  <si>
+    <t>hopsTime4 90\n</t>
+  </si>
+  <si>
+    <t>hopsTime5 90\n</t>
+  </si>
+  <si>
+    <t>hopsTime6 90\n</t>
+  </si>
+  <si>
+    <t>setHopTime2(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>setHopTime3(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>setHopTime4(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>setHopTime5(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>setHopTime6(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>Set Post Boil Settling time</t>
+  </si>
+  <si>
+    <t>Set the time after the boil that the wort sits for</t>
+  </si>
+  <si>
+    <t>settlingTime 3\n</t>
+  </si>
+  <si>
+    <t>setSettlingTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>0 - 20</t>
+  </si>
+  <si>
+    <t>Set Post Boil Recirc time</t>
+  </si>
+  <si>
+    <t>settlingRecircTime 2\n</t>
+  </si>
+  <si>
+    <t>setSettlingRecircTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>Set Chiller Pump Priming Cycles</t>
+  </si>
+  <si>
+    <t>Set th time after the boil that the pump recirculates for sanitation</t>
+  </si>
+  <si>
+    <t>Sets the number of priming cycles the pump takes to ensure it is primed</t>
+  </si>
+  <si>
+    <t>Set Chiller Pump Priming Time</t>
+  </si>
+  <si>
+    <t>chillerPumpPrimingCycles 3\n</t>
+  </si>
+  <si>
+    <t>chillerPumpPrimingTime 5\n</t>
+  </si>
+  <si>
+    <t>setChillerPumpPrimingCycles(int value)</t>
+  </si>
+  <si>
+    <t>setChillerPumpPrimingTime(int timeInSeconds)</t>
+  </si>
+  <si>
+    <t>Set Chiller Time</t>
+  </si>
+  <si>
+    <t>Sets the time to chill and pump the wort to the fermenter</t>
+  </si>
+  <si>
+    <t>chillTime 9\n</t>
+  </si>
+  <si>
+    <t>setChillTime(int timeInMinutes)</t>
+  </si>
+  <si>
+    <t>Set Manual HLT Temp Setpoint</t>
+  </si>
+  <si>
+    <t>Set the temperature setpoint for the HLT when running in manual mode</t>
+  </si>
+  <si>
+    <t>hltSetpointManual 55.0\n</t>
+  </si>
+  <si>
+    <t>setHLTManualSetpoint(float Temp)</t>
+  </si>
+  <si>
+    <t>20.0 - 100.0</t>
+  </si>
+  <si>
+    <t>Set Manual Boil Duty Cycle</t>
+  </si>
+  <si>
+    <t>Set the duty cycle for the boiler when running in manual mode</t>
+  </si>
+  <si>
+    <t>boilDutyCycleManual 90\n</t>
+  </si>
+  <si>
+    <t>setBoilDutyManual(int duty)</t>
+  </si>
+  <si>
+    <t>0 - 100</t>
+  </si>
+  <si>
+    <t>Open HLT Valve</t>
+  </si>
+  <si>
+    <t>Open the HLT valve to the mash in Manual Mode</t>
+  </si>
+  <si>
+    <t>openHltValveManual\n</t>
+  </si>
+  <si>
+    <t>openHLTValveManual()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close HLT Valve </t>
+  </si>
+  <si>
+    <t>Close the HLT valve in Manual Mode</t>
+  </si>
+  <si>
+    <t>closeHltValveManual\n</t>
+  </si>
+  <si>
+    <t>closeHLTValveManual()</t>
+  </si>
+  <si>
+    <t>Open Mash Valve</t>
+  </si>
+  <si>
+    <t>Open the Mash Valve to the Boil in Manual Mode</t>
+  </si>
+  <si>
+    <t>openMashValveManual\n</t>
+  </si>
+  <si>
+    <t>openMashValveManual()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Mash Vavle </t>
+  </si>
+  <si>
+    <t>Close the Mash Valve to recirculate back to the mash in Manual Mode</t>
+  </si>
+  <si>
+    <t>closeMashValveManual\n</t>
+  </si>
+  <si>
+    <t>closeMashValveManual()</t>
+  </si>
+  <si>
+    <t>Open Inlet Valve</t>
+  </si>
+  <si>
+    <t>openInletValveManual\n</t>
+  </si>
+  <si>
+    <t>openInletValveManual()</t>
+  </si>
+  <si>
+    <t>Close Inlet Valve</t>
+  </si>
+  <si>
+    <t>closeInletValveManual\n</t>
+  </si>
+  <si>
+    <t>closeInletValveManual()</t>
+  </si>
+  <si>
+    <t>Open Boil Valve</t>
+  </si>
+  <si>
+    <t>Open the boil valve to the chiller in Manual Mode</t>
+  </si>
+  <si>
+    <t>openBoilValveManual\n</t>
+  </si>
+  <si>
+    <t>openBoilValveManual()</t>
+  </si>
+  <si>
+    <t>Close Boil Valve</t>
+  </si>
+  <si>
+    <t>Close the boil valve to recirc back to the boiler in Manual Mode</t>
+  </si>
+  <si>
+    <t>closeBoilValveManual\n</t>
+  </si>
+  <si>
+    <t>closeBoilValveManual()</t>
+  </si>
+  <si>
+    <t>Open the chiller valve to allow cold water to flow through the chiller in Manual Mode</t>
+  </si>
+  <si>
+    <t>Open Chill Valve</t>
+  </si>
+  <si>
+    <t>Close the chiller valve</t>
+  </si>
+  <si>
+    <t>close Chill Valve</t>
+  </si>
+  <si>
+    <t>Start Mash Pump</t>
+  </si>
+  <si>
+    <t>Start the mash pump in manual mode</t>
+  </si>
+  <si>
+    <t>Stop Mash Pump</t>
+  </si>
+  <si>
+    <t>Stops the mash pump in manual mode</t>
+  </si>
+  <si>
+    <t>openDumpValveManual()</t>
+  </si>
+  <si>
+    <t>closeDumpValveManual()</t>
+  </si>
+  <si>
+    <t>startMashPumpManual()</t>
+  </si>
+  <si>
+    <t>stopMashPumpManual()</t>
+  </si>
+  <si>
+    <t>Start ChillerPump</t>
+  </si>
+  <si>
+    <t>Start the chiller pump in manual mode</t>
+  </si>
+  <si>
+    <t>startChillerPumpManual()</t>
+  </si>
+  <si>
+    <t>Stop ChillerPump</t>
+  </si>
+  <si>
+    <t>Stop the chiller pump in manual mode</t>
+  </si>
+  <si>
+    <t>stopChillerPumpManual()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Boiler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the boiler </t>
+  </si>
+  <si>
+    <t>openDumpValveManual\n</t>
+  </si>
+  <si>
+    <t>closeDumpValveManual\n</t>
+  </si>
+  <si>
+    <t>startMashPumpManual\n</t>
+  </si>
+  <si>
+    <t>stopMashPumpManual\n</t>
+  </si>
+  <si>
+    <t>startChillerPumpManual\n</t>
+  </si>
+  <si>
+    <t>stopChillerPumpManual\n</t>
+  </si>
+  <si>
+    <t>startBoilerManual\n</t>
+  </si>
+  <si>
+    <t>startBoilerManual()</t>
+  </si>
+  <si>
+    <t>Stop Boiler</t>
+  </si>
+  <si>
+    <t>Stop the boiler</t>
+  </si>
+  <si>
+    <t>stopBoilerManual\n</t>
+  </si>
+  <si>
+    <t>stopBoilerManual()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start HLT </t>
+  </si>
+  <si>
+    <t>Start heating the HLT</t>
+  </si>
+  <si>
+    <t>startHLTManual\n</t>
+  </si>
+  <si>
+    <t>startHLTManual()</t>
+  </si>
+  <si>
+    <t>StopHLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop heating the HLT </t>
+  </si>
+  <si>
+    <t>stopHLTManual\n</t>
+  </si>
+  <si>
+    <t>stopHLTManual()</t>
+  </si>
+  <si>
+    <t>Drive Hop Dropper to Next Pos</t>
+  </si>
+  <si>
+    <t>Drives the hop dropper to the next stop position</t>
+  </si>
+  <si>
+    <t>hopsNextManual\n</t>
+  </si>
+  <si>
+    <t>hopsNextManual()</t>
   </si>
 </sst>
 </file>
@@ -113,13 +816,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -133,13 +841,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E1048573" totalsRowShown="0">
+  <autoFilter ref="A1:E1048573"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Name "/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Usage Example (&quot;node&quot; command)"/>
-    <tableColumn id="4" name="C Function"/>
+    <tableColumn id="5" name="C Function"/>
+    <tableColumn id="4" name="Valid inputs for parameter" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -400,7 +1109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,21 +1117,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,60 +1140,970 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="E26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
